--- a/Experimento4/Experimento 4.xlsx
+++ b/Experimento4/Experimento 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\Laboratorio de Electrónica Analógica\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\Laboratorio de Electrónica Analógica\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD60D53-9243-4C27-BD33-A862F7A193B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A796968-8979-4C3C-A537-CDED903C1560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2675FC-CE57-4EDB-8B41-636BD7DBAF30}"/>
   </bookViews>
@@ -143,10 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ED5ADF-CA08-4656-B2FF-638AB5387C9A}">
   <dimension ref="D3:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,39 +2644,39 @@
       </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="K14" s="5"/>
+      <c r="M14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="s">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="4"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2900,28 +2900,28 @@
       </c>
     </row>
     <row r="24" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Experimento4/Experimento 4.xlsx
+++ b/Experimento4/Experimento 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\Laboratorio de Electrónica Analógica\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A796968-8979-4C3C-A537-CDED903C1560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB6A731-D689-47EA-A312-5A1A3CC361CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2675FC-CE57-4EDB-8B41-636BD7DBAF30}"/>
+    <workbookView xWindow="-21720" yWindow="2490" windowWidth="21840" windowHeight="13740" xr2:uid="{BC2675FC-CE57-4EDB-8B41-636BD7DBAF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2276,6 +2277,67 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="Regiones de operación del transistor de juntura bipolar (BJT) – Aula 2.0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF33438-A804-4815-8BB6-3FAA47F7A289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5004289" y="8667749"/>
+          <a:ext cx="4183672" cy="3152155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2576,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ED5ADF-CA08-4656-B2FF-638AB5387C9A}">
-  <dimension ref="D3:S28"/>
+  <dimension ref="D3:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,39 +2706,39 @@
       </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="K14" s="6"/>
+      <c r="M14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2757,7 @@
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3060,6 +3122,9 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3073,6 +3138,7 @@
     <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Experimento4/Experimento 4.xlsx
+++ b/Experimento4/Experimento 4.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\Laboratorio de Electrónica Analógica\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB6A731-D689-47EA-A312-5A1A3CC361CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A179A2F-FAB8-48FD-9F33-AACD40FB6422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2490" windowWidth="21840" windowHeight="13740" xr2:uid="{BC2675FC-CE57-4EDB-8B41-636BD7DBAF30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BC2675FC-CE57-4EDB-8B41-636BD7DBAF30}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="parte 1" sheetId="1" r:id="rId1"/>
+    <sheet name="parte 2" sheetId="2" r:id="rId2"/>
+    <sheet name="datos histeresis parte 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>Tabla 2: Resultados Experimentales</t>
   </si>
@@ -89,13 +91,96 @@
   <si>
     <t>ic3</t>
   </si>
+  <si>
+    <t>componente</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>rc1</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>requerido</t>
+  </si>
+  <si>
+    <t>medido</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>calculado</t>
+  </si>
+  <si>
+    <t>Vcesat</t>
+  </si>
+  <si>
+    <t>Vcecorte</t>
+  </si>
+  <si>
+    <t>Vrc sat</t>
+  </si>
+  <si>
+    <t>isat</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>simulado</t>
+  </si>
+  <si>
+    <t>Vin led on</t>
+  </si>
+  <si>
+    <t>Vout led on</t>
+  </si>
+  <si>
+    <t>Vin umbral</t>
+  </si>
+  <si>
+    <t>Vout umbral</t>
+  </si>
+  <si>
+    <t>Vin umbral sup</t>
+  </si>
+  <si>
+    <t>Vout umbral sup</t>
+  </si>
+  <si>
+    <t>Vin umbral inf</t>
+  </si>
+  <si>
+    <t>Vout umbral inf</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>VOUT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -148,6 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,7 +321,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$25:$E$28</c:f>
+              <c:f>'parte 1'!$E$25:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -253,7 +342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$25:$F$28</c:f>
+              <c:f>'parte 1'!$F$25:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -296,7 +385,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$25:$E$28</c:f>
+              <c:f>'parte 1'!$E$25:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -317,7 +406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$25:$G$28</c:f>
+              <c:f>'parte 1'!$G$25:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -360,7 +449,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$25:$E$28</c:f>
+              <c:f>'parte 1'!$E$25:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -381,7 +470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$25:$H$28</c:f>
+              <c:f>'parte 1'!$H$25:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -667,9 +756,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7082239720034987E-3"/>
+                  <c:y val="4.4266550014581511E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$25:$E$28</c:f>
+              <c:f>'parte 1'!$E$25:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -690,21 +829,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$25:$N$28</c:f>
+              <c:f>'parte 1'!$N$25:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.2379369918699191E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.5245426829268292E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.7230182926829273E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.8938292682926821E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,9 +870,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.081933508311461E-2"/>
+                  <c:y val="5.4106153397491981E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$25:$E$28</c:f>
+              <c:f>'parte 1'!$E$25:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -754,21 +943,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$O$25:$O$28</c:f>
+              <c:f>'parte 1'!$O$25:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5548780487804878E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6260162601626015E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6768292682926827E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7073170731707315E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,9 +984,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3748906386701662E-3"/>
+                  <c:y val="3.20242782152231E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$25:$E$28</c:f>
+              <c:f>'parte 1'!$E$25:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -818,21 +1057,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$P$25:$P$28</c:f>
+              <c:f>'parte 1'!$P$25:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3272357723577233E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.398373983739837E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.4695121951219513E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.540650406504065E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,6 +1200,593 @@
         </c:txPr>
         <c:crossAx val="164078111"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3724190726159233E-2"/>
+                  <c:y val="-7.613298337707787E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'parte 1'!$W$25:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'parte 1'!$X$25:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6444410569105675E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9716971544715439E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2316565040650393E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.007650406504065E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AA6-4BF4-A94B-3329DA32D16B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6501968503937008E-2"/>
+                  <c:y val="-7.3890347039953341E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'parte 1'!$W$25:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'parte 1'!$Y$25:$Y$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7581300813008127E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.961382113821138E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1168699186991869E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AA6-4BF4-A94B-3329DA32D16B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0535870516185481E-3"/>
+                  <c:y val="-4.4876057159521747E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'parte 1'!$W$25:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'parte 1'!$Z$25:$Z$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6422764227642274E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8150406504065039E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1707317073170732E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4552845528455278E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2AA6-4BF4-A94B-3329DA32D16B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="492387215"/>
+        <c:axId val="492388047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="492387215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492388047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492388047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492387215"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1002,6 +1828,784 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7701443569553802E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.84459711286089234"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'datos histeresis parte 2'!$C$4:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.0100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7700000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.165324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34045999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53931200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76931899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.726</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3130000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'datos histeresis parte 2'!$D$4:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66A2-4599-AF47-6C24CE53FC32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="255565823"/>
+        <c:axId val="255564159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="255565823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255564159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="255564159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255565823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'datos histeresis parte 2'!$H$4:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.3130000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76931899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53931200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34045999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.165324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7700000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0100000000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'datos histeresis parte 2'!$I$4:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F16C-4941-BF7F-084C55176858}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="334302463"/>
+        <c:axId val="334293311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="334302463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334293311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="334293311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334302463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1119,6 +2723,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2132,6 +3856,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2338,6 +5610,119 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>89389</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF246A93-4245-4650-8E75-3F4B8EFC3C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B36E021-4DCD-4E65-9331-84ACF3FAB7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F9A869-F696-4E85-8174-B89BFBF43F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2638,10 +6023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ED5ADF-CA08-4656-B2FF-638AB5387C9A}">
-  <dimension ref="D3:S54"/>
+  <dimension ref="D3:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,12 +6039,12 @@
     <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:29" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2673,31 +6058,35 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:29" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="2">
         <v>33000</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2">
+        <v>32720</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:29" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>98.4</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -2705,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:29" x14ac:dyDescent="0.25">
       <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
@@ -2736,8 +6125,23 @@
         <v>13</v>
       </c>
       <c r="S14" s="6"/>
+      <c r="W14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:29" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -2776,8 +6180,27 @@
       <c r="S15" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:29" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>2</v>
       </c>
@@ -2805,23 +6228,53 @@
       <c r="M16" s="1">
         <v>2</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="e">
+      <c r="N16" s="2">
+        <v>0.81061300000000003</v>
+      </c>
+      <c r="O16" s="1">
         <f>N16/$G$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="e">
+        <v>8.2379369918699191E-3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="Q16" s="1">
         <f>P16/$G$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1" t="e">
+        <v>1.5548780487804878E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="S16" s="1">
         <f>R16/$G$7</f>
-        <v>#DIV/0!</v>
+        <v>2.3272357723577233E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.85061299999999995</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>X16/$G$7</f>
+        <v>8.6444410569105675E-3</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>Z16/$G$7</f>
+        <v>1.7581300813008127E-2</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AC16" s="1">
+        <f>AB16/$G$7</f>
+        <v>2.6422764227642274E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>4</v>
       </c>
@@ -2849,23 +6302,53 @@
       <c r="M17" s="1">
         <v>4</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="e">
+      <c r="N17" s="2">
+        <v>0.83881499999999998</v>
+      </c>
+      <c r="O17" s="1">
         <f t="shared" ref="O17:O19" si="3">N17/$G$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="e">
+        <v>8.5245426829268292E-3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="Q17" s="1">
         <f t="shared" ref="Q17:Q19" si="4">P17/$G$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="e">
+        <v>1.6260162601626015E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" ref="S17:S19" si="5">R17/$G$7</f>
-        <v>#DIV/0!</v>
+        <v>2.398373983739837E-2</v>
+      </c>
+      <c r="W17" s="1">
+        <v>4</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.88281500000000002</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" ref="Y17:Y19" si="6">X17/$G$7</f>
+        <v>8.9716971544715439E-3</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" ref="AA17:AA19" si="7">Z17/$G$7</f>
+        <v>1.8292682926829267E-2</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" ref="AC17:AC19" si="8">AB17/$G$7</f>
+        <v>2.8150406504065039E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>6</v>
       </c>
@@ -2893,23 +6376,53 @@
       <c r="M18" s="1">
         <v>6</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="e">
+      <c r="N18" s="2">
+        <v>0.85834500000000002</v>
+      </c>
+      <c r="O18" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="e">
+        <v>8.7230182926829273E-3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="Q18" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="e">
+        <v>1.6768292682926827E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="S18" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.4695121951219513E-2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>6</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.90839499999999995</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="6"/>
+        <v>9.2316565040650393E-3</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="7"/>
+        <v>1.961382113821138E-2</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1707317073170732E-2</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>8</v>
       </c>
@@ -2937,31 +6450,64 @@
       <c r="M19" s="1">
         <v>8</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="e">
+      <c r="N19" s="2">
+        <v>0.87515279999999995</v>
+      </c>
+      <c r="O19" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="e">
+        <v>8.8938292682926821E-3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="e">
+        <v>1.7073170731707315E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.540650406504065E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>8</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.99152799999999996</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.007650406504065E-2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1168699186991869E-2</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="8"/>
+        <v>3.4552845528455278E-2</v>
       </c>
     </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
       </c>
+      <c r="W22" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +6532,20 @@
       <c r="P24" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="W24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="25" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <f>E16</f>
         <v>2</v>
@@ -3008,126 +6566,194 @@
         <f>M16</f>
         <v>2</v>
       </c>
-      <c r="N25" s="2" t="e">
+      <c r="N25" s="2">
         <f>O16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="1" t="e">
+        <v>8.2379369918699191E-3</v>
+      </c>
+      <c r="O25" s="1">
         <f>Q16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="1" t="e">
+        <v>1.5548780487804878E-2</v>
+      </c>
+      <c r="P25" s="1">
         <f>S16</f>
-        <v>#DIV/0!</v>
+        <v>2.3272357723577233E-2</v>
+      </c>
+      <c r="W25" s="1">
+        <f>W16</f>
+        <v>2</v>
+      </c>
+      <c r="X25" s="2">
+        <f>Y16</f>
+        <v>8.6444410569105675E-3</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>AA16</f>
+        <v>1.7581300813008127E-2</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>AC16</f>
+        <v>2.6422764227642274E-2</v>
       </c>
     </row>
-    <row r="26" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
-        <f t="shared" ref="E26:E27" si="6">E17</f>
+        <f t="shared" ref="E26:E27" si="9">E17</f>
         <v>4</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ref="F26:F28" si="7">G17</f>
+        <f t="shared" ref="F26:F28" si="10">G17</f>
         <v>8.3099999999999997E-3</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G28" si="8">I17</f>
+        <f t="shared" ref="G26:G28" si="11">I17</f>
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H28" si="9">K17</f>
+        <f t="shared" ref="H26:H28" si="12">K17</f>
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" ref="M26:M27" si="10">M17</f>
+        <f t="shared" ref="M26:M27" si="13">M17</f>
         <v>4</v>
       </c>
-      <c r="N26" s="2" t="e">
-        <f t="shared" ref="N26:N28" si="11">O17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="1" t="e">
-        <f t="shared" ref="O26:O28" si="12">Q17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="1" t="e">
-        <f t="shared" ref="P26:P28" si="13">S17</f>
-        <v>#DIV/0!</v>
+      <c r="N26" s="2">
+        <f t="shared" ref="N26:N28" si="14">O17</f>
+        <v>8.5245426829268292E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" ref="O26:O28" si="15">Q17</f>
+        <v>1.6260162601626015E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" ref="P26:P28" si="16">S17</f>
+        <v>2.398373983739837E-2</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" ref="W26:W27" si="17">W17</f>
+        <v>4</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" ref="X26:X28" si="18">Y17</f>
+        <v>8.9716971544715439E-3</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" ref="Y26:Y28" si="19">AA17</f>
+        <v>1.8292682926829267E-2</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" ref="Z26:Z28" si="20">AC17</f>
+        <v>2.8150406504065039E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.5299999999999994E-3</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.3900000000000001E-2</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="N27" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="1" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="N27" s="2">
+        <f t="shared" si="14"/>
+        <v>8.7230182926829273E-3</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="15"/>
+        <v>1.6768292682926827E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="16"/>
+        <v>2.4695121951219513E-2</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="18"/>
+        <v>9.2316565040650393E-3</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="19"/>
+        <v>1.961382113821138E-2</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="20"/>
+        <v>3.1707317073170732E-2</v>
       </c>
     </row>
-    <row r="28" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <f>E19</f>
         <v>8</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.7399999999999995E-3</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.67E-2</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="M28" s="1">
         <f>M19</f>
         <v>8</v>
       </c>
-      <c r="N28" s="2" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="1" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="N28" s="2">
+        <f t="shared" si="14"/>
+        <v>8.8938292682926821E-3</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="15"/>
+        <v>1.7073170731707315E-2</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="16"/>
+        <v>2.540650406504065E-2</v>
+      </c>
+      <c r="W28" s="1">
+        <f>W19</f>
+        <v>8</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="18"/>
+        <v>1.007650406504065E-2</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="19"/>
+        <v>2.1168699186991869E-2</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="20"/>
+        <v>3.4552845528455278E-2</v>
       </c>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L54" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="E14:E15"/>
@@ -3141,4 +6767,719 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4B219A-5F87-4044-A5CA-FF1A9B20FB43}">
+  <dimension ref="E10:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9790</v>
+      </c>
+      <c r="J11" s="1">
+        <f>(ABS(F11-G11)/F11)*100</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>986</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12:J14" si="0">(ABS(F12-G12)/F12)*100</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9460</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1">
+        <v>330</v>
+      </c>
+      <c r="G14" s="1">
+        <v>324.8</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5757575757575724</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="J18" s="1">
+        <f>(ABS(F18-G18)/F18)*100</f>
+        <v>8.3333333333333428</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7.9680000000000001E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="J19:J21" si="1">(ABS(F19-G19)/F19)*100</f>
+        <v>5.2556480380499329</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9.8399999999999998E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9.7800000000000005E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60975609756096838</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9.9299999999999996E-3</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7272727272727266</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6.3509999999999999E-4</v>
+      </c>
+      <c r="J28" s="1">
+        <f>(ABS(F28-G28)/F28)*100</f>
+        <v>52825</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="2">
+        <v>8.14E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7.417E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" ref="J29:J31" si="2">(ABS(F29-G29)/F29)*100</f>
+        <v>8.882063882063882</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.74281900000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>10.503734939759031</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10.45</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333428</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6.068E-4</v>
+      </c>
+      <c r="J37" s="1">
+        <f>(ABS(F37-G37)/F37)*100</f>
+        <v>4956.666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" ref="J38:J42" si="3">(ABS(F38-G38)/F38)*100</f>
+        <v>1.8978102189781039</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2207792207792174</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10.45</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333428</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="J41" s="1">
+        <f>(ABS(F41-G41)/F41)*100</f>
+        <v>9.4444444444444517</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9426523297490994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9217079C-15B6-4ADE-B49D-ED86F818E4A3}">
+  <dimension ref="B2:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.3130000000000006</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.7700000000000002E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.165324</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.34045999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.0970000000000004</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.53931200000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.76931899999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.726</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.1040000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.1040000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.726</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.76931899999999998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.53931200000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.0970000000000004</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.34045999999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.165324</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7.7700000000000002E-4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9.3130000000000006</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H20">
+    <sortCondition descending="1" ref="H4:H20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experimento4/Experimento 4.xlsx
+++ b/Experimento4/Experimento 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d4v1d\Desktop\Laboratorio de Electrónica Analógica\LabAnalogicaGraficas\GIT\Laboratorio_Electronica_Analogica\Experimento4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rex/Desktop/Git/Laboratorio_Electronica_Analogica/Experimento4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A179A2F-FAB8-48FD-9F33-AACD40FB6422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3C308-6042-F448-9EFC-6E4AADC4470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BC2675FC-CE57-4EDB-8B41-636BD7DBAF30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{BC2675FC-CE57-4EDB-8B41-636BD7DBAF30}"/>
   </bookViews>
   <sheets>
     <sheet name="parte 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <t>Tabla 2: Resultados Experimentales</t>
   </si>
@@ -166,6 +166,33 @@
   <si>
     <t>VOUT</t>
   </si>
+  <si>
+    <t>ib=50</t>
+  </si>
+  <si>
+    <t>ib=100</t>
+  </si>
+  <si>
+    <t>ib=150</t>
+  </si>
+  <si>
+    <t>ic50</t>
+  </si>
+  <si>
+    <t>ic100</t>
+  </si>
+  <si>
+    <t>ic150</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Simulados</t>
+  </si>
+  <si>
+    <t>Experimentales</t>
+  </si>
 </sst>
 </file>
 
@@ -230,13 +257,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,7 +284,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -694,7 +721,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1281,7 +1308,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1868,7 +1895,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2262,7 +2289,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5427,14 +5454,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297739</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2837741</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>127843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66796</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>739150</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:to>
@@ -5465,8 +5492,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067566" y="6033343"/>
-          <a:ext cx="3307961" cy="2465889"/>
+          <a:off x="5303035" y="6149137"/>
+          <a:ext cx="3818115" cy="2514448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5552,15 +5579,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>234462</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>9830</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>29307</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>8904</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>911353</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>103389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5590,8 +5617,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5004289" y="8667749"/>
-          <a:ext cx="4183672" cy="3152155"/>
+          <a:off x="5313948" y="10071117"/>
+          <a:ext cx="3979405" cy="2657566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5727,7 +5754,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6023,28 +6050,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ED5ADF-CA08-4656-B2FF-638AB5387C9A}">
-  <dimension ref="D3:AC54"/>
+  <dimension ref="D3:AC97"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6058,7 +6085,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6072,7 +6099,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6086,7 +6113,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="13" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -6094,55 +6121,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:29" x14ac:dyDescent="0.25">
-      <c r="E14" s="6" t="s">
+    <row r="14" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="K14" s="10"/>
+      <c r="M14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6" t="s">
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="W14" s="6" t="s">
+      <c r="S14" s="10"/>
+      <c r="W14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6" t="s">
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6" t="s">
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AC14" s="6"/>
+      <c r="AC14" s="10"/>
     </row>
-    <row r="15" spans="4:29" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
+    <row r="15" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6161,7 +6188,7 @@
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6180,7 +6207,7 @@
       <c r="S15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W15" s="6"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6200,7 +6227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E16" s="1">
         <v>2</v>
       </c>
@@ -6274,7 +6301,7 @@
         <v>2.6422764227642274E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E17" s="1">
         <v>4</v>
       </c>
@@ -6348,7 +6375,7 @@
         <v>2.8150406504065039E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E18" s="1">
         <v>6</v>
       </c>
@@ -6422,7 +6449,7 @@
         <v>3.1707317073170732E-2</v>
       </c>
     </row>
-    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E19" s="1">
         <v>8</v>
       </c>
@@ -6496,7 +6523,7 @@
         <v>3.4552845528455278E-2</v>
       </c>
     </row>
-    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>14</v>
       </c>
@@ -6507,7 +6534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
@@ -6545,7 +6572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <f>E16</f>
         <v>2</v>
@@ -6595,7 +6622,7 @@
         <v>2.6422764227642274E-2</v>
       </c>
     </row>
-    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <f t="shared" ref="E26:E27" si="9">E17</f>
         <v>4</v>
@@ -6645,7 +6672,7 @@
         <v>2.8150406504065039E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -6695,7 +6722,7 @@
         <v>3.1707317073170732E-2</v>
       </c>
     </row>
-    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:29" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <f>E19</f>
         <v>8</v>
@@ -6745,23 +6772,217 @@
         <v>3.4552845528455278E-2</v>
       </c>
     </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L54" s="5"/>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E81" s="1">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1">
+        <f>J81/0.00005</f>
+        <v>164.79</v>
+      </c>
+      <c r="G81" s="1">
+        <f>K81/0.0001</f>
+        <v>157.07</v>
+      </c>
+      <c r="H81" s="1">
+        <f>L81/0.00015</f>
+        <v>153.54000000000002</v>
+      </c>
+      <c r="J81" s="1">
+        <v>8.2395000000000003E-3</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1.5706999999999999E-2</v>
+      </c>
+      <c r="L81" s="1">
+        <v>2.3030999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1">
+        <f>J82/0.00005</f>
+        <v>168.524</v>
+      </c>
+      <c r="G82" s="1">
+        <f>K82/0.0001</f>
+        <v>161.20999999999998</v>
+      </c>
+      <c r="H82" s="1">
+        <f>L82/0.00015</f>
+        <v>157.28</v>
+      </c>
+      <c r="J82" s="1">
+        <v>8.4262E-3</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1.6121E-2</v>
+      </c>
+      <c r="L82" s="1">
+        <v>2.3591999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84">
+        <f>+AVERAGE(F81:F82)</f>
+        <v>166.65699999999998</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ref="G84:H84" si="21">+AVERAGE(G81:G82)</f>
+        <v>159.13999999999999</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="21"/>
+        <v>155.41000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E94" s="1">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <f>J94/0.00005</f>
+        <v>167.61799999999999</v>
+      </c>
+      <c r="G94" s="1">
+        <f>K94/0.0001</f>
+        <v>158.73999999999998</v>
+      </c>
+      <c r="H94" s="1">
+        <f>L94/0.00015</f>
+        <v>157.50666666666669</v>
+      </c>
+      <c r="J94" s="1">
+        <v>8.3809000000000002E-3</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1.5873999999999999E-2</v>
+      </c>
+      <c r="L94" s="1">
+        <v>2.3626000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E95" s="1">
+        <v>5</v>
+      </c>
+      <c r="F95" s="1">
+        <f>J95/0.00005</f>
+        <v>172.04799999999997</v>
+      </c>
+      <c r="G95" s="1">
+        <f>K95/0.0001</f>
+        <v>165.39000000000001</v>
+      </c>
+      <c r="H95" s="1">
+        <f>L95/0.00015</f>
+        <v>162.18000000000004</v>
+      </c>
+      <c r="J95" s="1">
+        <v>8.6023999999999996E-3</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1.6539000000000002E-2</v>
+      </c>
+      <c r="L95" s="1">
+        <v>2.4327000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97">
+        <f>+AVERAGE(F94:F95)</f>
+        <v>169.83299999999997</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ref="G97:H97" si="22">+AVERAGE(G94:G95)</f>
+        <v>162.065</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="22"/>
+        <v>159.84333333333336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="W14:W15"/>
     <mergeCell ref="X14:Y14"/>
     <mergeCell ref="Z14:AA14"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6773,16 +6994,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4B219A-5F87-4044-A5CA-FF1A9B20FB43}">
   <dimension ref="E10:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
@@ -6792,11 +7013,14 @@
       <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
@@ -6805,13 +7029,16 @@
       </c>
       <c r="G11" s="2">
         <v>9790</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J11" s="1">
         <f>(ABS(F11-G11)/F11)*100</f>
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
@@ -6820,13 +7047,16 @@
       </c>
       <c r="G12" s="2">
         <v>986</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ref="J12:J14" si="0">(ABS(F12-G12)/F12)*100</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6835,13 +7065,16 @@
       </c>
       <c r="G13" s="2">
         <v>9460</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
@@ -6850,13 +7083,16 @@
       </c>
       <c r="G14" s="1">
         <v>324.8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>1.5757575757575724</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
@@ -6866,11 +7102,14 @@
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
@@ -6879,13 +7118,16 @@
       </c>
       <c r="G18" s="1">
         <v>10.45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J18" s="1">
         <f>(ABS(F18-G18)/F18)*100</f>
         <v>8.3333333333333428</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
@@ -6894,13 +7136,16 @@
       </c>
       <c r="G19" s="2">
         <v>7.9680000000000001E-2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ref="J19:J21" si="1">(ABS(F19-G19)/F19)*100</f>
         <v>5.2556480380499329</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
@@ -6909,13 +7154,16 @@
       </c>
       <c r="G20" s="2">
         <v>9.7800000000000005E-3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="1"/>
         <v>0.60975609756096838</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
@@ -6924,13 +7172,16 @@
       </c>
       <c r="G21" s="2">
         <v>9.9299999999999996E-3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="1"/>
         <v>9.7272727272727266</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6940,11 +7191,14 @@
       <c r="G27" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
@@ -6953,13 +7207,16 @@
       </c>
       <c r="G28" s="2">
         <v>6.3509999999999999E-4</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J28" s="1">
         <f>(ABS(F28-G28)/F28)*100</f>
         <v>52825</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E29" s="1" t="s">
         <v>34</v>
       </c>
@@ -6968,13 +7225,16 @@
       </c>
       <c r="G29" s="2">
         <v>7.417E-2</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" ref="J29:J31" si="2">(ABS(F29-G29)/F29)*100</f>
         <v>8.882063882063882</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
@@ -6983,13 +7243,16 @@
       </c>
       <c r="G30" s="2">
         <v>0.74281900000000001</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
         <v>10.503734939759031</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
@@ -6998,13 +7261,16 @@
       </c>
       <c r="G31" s="2">
         <v>10.45</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
         <v>8.3333333333333428</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
@@ -7014,11 +7280,14 @@
       <c r="G36" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
         <v>33</v>
       </c>
@@ -7027,28 +7296,34 @@
       </c>
       <c r="G37" s="2">
         <v>6.068E-4</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J37" s="1">
         <f>(ABS(F37-G37)/F37)*100</f>
         <v>4956.666666666667</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>2.74</v>
       </c>
       <c r="G38" s="2">
         <v>2.6880000000000002</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ref="J38:J42" si="3">(ABS(F38-G38)/F38)*100</f>
         <v>1.8978102189781039</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="s">
         <v>37</v>
       </c>
@@ -7057,13 +7332,16 @@
       </c>
       <c r="G39" s="2">
         <v>2.95</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="3"/>
         <v>4.2207792207792174</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="s">
         <v>38</v>
       </c>
@@ -7072,14 +7350,17 @@
       </c>
       <c r="G40" s="2">
         <v>10.45</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="3"/>
         <v>8.3333333333333428</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="7" t="s">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="1">
@@ -7087,14 +7368,17 @@
       </c>
       <c r="G41" s="1">
         <v>1.63</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="J41" s="1">
         <f>(ABS(F41-G41)/F41)*100</f>
         <v>9.4444444444444517</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E42" s="7" t="s">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="1">
@@ -7102,6 +7386,9 @@
       </c>
       <c r="G42" s="1">
         <v>2.68</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="3"/>
@@ -7118,13 +7405,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9217079C-15B6-4ADE-B49D-ED86F818E4A3}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>41</v>
       </c>
@@ -7132,7 +7419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7152,7 +7439,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -7172,7 +7459,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7192,7 +7479,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -7212,7 +7499,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -7232,7 +7519,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -7252,7 +7539,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -7272,7 +7559,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -7292,7 +7579,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -7308,11 +7595,11 @@
       <c r="H12" s="2">
         <v>2.2549999999999999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -7332,7 +7619,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -7352,7 +7639,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -7372,7 +7659,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -7392,7 +7679,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -7412,7 +7699,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
@@ -7432,7 +7719,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -7452,7 +7739,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
@@ -7472,8 +7759,8 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="9"/>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H20">
